--- a/spreadsheet/macrofree/wafsg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.ko.xlsx
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 전용 회로는 온-프레미스와 Azure 간에 활성-활성 연결이 구성된 경우 '99.95%' 가용성을 보장합니다. 이 모드는 Expressroute 연결의 고가용성을 제공합니다. 또한 연결에 링크 오류가 있는 경우 더 빠른 장애 조치(failover)를 위해 BFD를 구성하는 것이 좋습니다.</t>
+          <t>이 모드는 Expressroute 연결의 고가용성을 제공합니다. 또한 연결에 링크 오류가 있는 경우 더 빠른 장애 조치(failover)를 위해 BFD를 구성하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>복원력을 높이기 위해 가용성 영역 인식 Virtual Network 게이트웨이를 만들고 재해 복구 및 고가용성을 위해 다른 지역의 Virtual Network 게이트웨이를 계획합니다.</t>
+          <t>복원력을 높이기 위해 가용성 영역 인식 Virtual Network Gateway를 만들고 복원력, 재해 복구 및 고가용성을 위해 여러 지역의 Virtual Network 게이트웨이를 계획합니다.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
